--- a/fluck.xlsx
+++ b/fluck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderkaplinskiy/fluck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A221368D-AF4D-394C-9AEA-C8AA033F2C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE8C651-695C-934F-AFC0-04B169274A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="16340" xr2:uid="{210DBD45-3B03-7149-B263-B4ED2DB5A16A}"/>
   </bookViews>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="213">
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>14.5 dB (NEXT)</t>
-  </si>
-  <si>
-    <t>03/26/2024 10:18 PM</t>
   </si>
   <si>
     <t>Length</t>
@@ -1068,7 +1062,7 @@
   <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+      <selection activeCell="E2" sqref="E2:G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,2600 +1074,2055 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">ROUND(RANDBETWEEN(44.8,94.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>60.3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">ROUND(RANDBETWEEN(44.8,94.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>80.2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
+        <v>51.2</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D24" ca="1" si="0">ROUND(RANDBETWEEN(44.8,94.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>56.1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>64.2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
+        <v>73.5</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>79.099999999999994</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
+        <v>55.3</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46.2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
+        <v>45.2</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>79.099999999999994</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
+        <v>49.2</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>62.2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
+        <v>65.2</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>48.1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
+        <v>47.5</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
+        <v>86.1</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>54.3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
+        <v>90.3</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>94.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
+        <v>50.2</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
+        <v>93.3</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>67.2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
+        <v>89.2</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>55.3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
+        <v>89.2</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46.1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
+        <v>90.5</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>94.3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>64.099999999999994</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
+        <v>88.1</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>85.1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>92.2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>86.2</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>76.099999999999994</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>56.1</v>
+      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>80.3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>66.3</v>
+      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ref="D4:D67" ca="1" si="1">ROUND(RANDBETWEEN(24.8,74.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>31.2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>64.099999999999994</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>61.1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44.1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>59.5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>26.3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>63.2</v>
+      </c>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>26.1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>49.3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>66.5</v>
+      </c>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44.3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>58.2</v>
+      </c>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>74.3</v>
+      </c>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50.3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>61.2</v>
+      </c>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>28.2</v>
+      </c>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>74.2</v>
+      </c>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>40.5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>49.1</v>
+      </c>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>25.1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>34.1</v>
+      </c>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>56.1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>34.1</v>
+      </c>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>62.1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>57.1</v>
+      </c>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>35.1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44.3</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.3</v>
+      </c>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42.2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D46" s="2">
         <f ca="1">ROUND(RANDBETWEEN(24.8,30.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>26.2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>27.1</v>
+      </c>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ref="D47:D57" ca="1" si="2">ROUND(RANDBETWEEN(24.8,30.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>30.3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>30.5</v>
+      </c>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>29.1</v>
+      </c>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>27.1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>28.3</v>
+      </c>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>30.2</v>
+      </c>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>29.1</v>
+      </c>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28.1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>27.2</v>
+      </c>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>29.1</v>
+      </c>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="2"/>
         <v>30.1</v>
       </c>
-      <c r="E54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>29.3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>27.1</v>
+      </c>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>28.2</v>
+      </c>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>29.1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>28.2</v>
+      </c>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D58" s="2">
         <f ca="1">ROUND(RANDBETWEEN(24.8,25.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>25.2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.5</v>
+      </c>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" ref="D59:D81" ca="1" si="3">ROUND(RANDBETWEEN(24.8,25.3)+1/RANDBETWEEN(1,9),1)</f>
         <v>25.3</v>
       </c>
-      <c r="E59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="3"/>
         <v>25.3</v>
       </c>
-      <c r="E60" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="3"/>
         <v>25.2</v>
       </c>
-      <c r="E61" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.2</v>
+      </c>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="3"/>
         <v>25.1</v>
       </c>
-      <c r="E63" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.2</v>
+      </c>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" ca="1" si="3"/>
         <v>25.1</v>
       </c>
-      <c r="E66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.2</v>
+      </c>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.5</v>
+      </c>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.1</v>
+      </c>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.3</v>
+      </c>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.3</v>
+      </c>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.1</v>
+      </c>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ca="1" si="3"/>
         <v>25.2</v>
       </c>
-      <c r="E74" t="s">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.3</v>
+      </c>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.2</v>
+      </c>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.1</v>
+      </c>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.3</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.2</v>
+      </c>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" ca="1" si="3"/>
         <v>25.1</v>
       </c>
-      <c r="E79" t="s">
-        <v>1</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.2</v>
+      </c>
+      <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25.1</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.3</v>
+      </c>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D82" s="2">
         <f ca="1">ROUND(RANDBETWEEN(24.8,35.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>29.2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>35.1</v>
+      </c>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" ref="D83:D86" ca="1" si="4">ROUND(RANDBETWEEN(24.8,35.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>27.2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>26.5</v>
+      </c>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>28.1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>27.1</v>
+      </c>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>28.1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>33.200000000000003</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>26.3</v>
+      </c>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D87" s="2">
         <f ca="1">ROUND(RANDBETWEEN(24.8,35.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>33.299999999999997</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>27.3</v>
+      </c>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" ref="D88:D93" ca="1" si="5">ROUND(RANDBETWEEN(24.8,35.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>32.1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.1</v>
+      </c>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>33.5</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>33.1</v>
+      </c>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>27.3</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>25.3</v>
+      </c>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>33.5</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D92" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>32.200000000000003</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>30.5</v>
+      </c>
+      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B93" t="s">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D93" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>30.1</v>
+      </c>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B94" t="s">
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D94" s="2">
         <f ca="1">ROUND(RANDBETWEEN(24.8,85.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>25.1</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D95" s="2">
         <f t="shared" ref="D95:D106" ca="1" si="6">ROUND(RANDBETWEEN(24.8,85.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>51.2</v>
+      </c>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D96" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>60.5</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B97" t="s">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D97" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>27.1</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B98" t="s">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D98" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>27.2</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>66.2</v>
+      </c>
+      <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>70.099999999999994</v>
+      </c>
+      <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B100" t="s">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>27.5</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>78.2</v>
+      </c>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B101" t="s">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>63.2</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>31.1</v>
+      </c>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B102" t="s">
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D102" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>79.099999999999994</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B103" t="s">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D103" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.1</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D104" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D105" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>32.200000000000003</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>44.1</v>
+      </c>
+      <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D106" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>55.2</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>78.3</v>
+      </c>
+      <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B107" t="s">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D107" s="2">
         <f t="shared" ref="D68:D131" ca="1" si="7">ROUND(RANDBETWEEN(24.8,74.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>26.1</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>47.5</v>
+      </c>
+      <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D108" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>26.3</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>28.1</v>
+      </c>
+      <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D109" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>49.3</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>29.2</v>
+      </c>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D110" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>71.2</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>50.5</v>
+      </c>
+      <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D111" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>55.1</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B112" t="s">
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D112" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>26.2</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>47.1</v>
+      </c>
+      <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D113" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>67.5</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B114" t="s">
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D114" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>56.1</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>42.1</v>
+      </c>
+      <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B115" t="s">
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D115" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>51.1</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>42.1</v>
+      </c>
+      <c r="F115" s="1"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B116" t="s">
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D116" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>52.1</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>69.099999999999994</v>
+      </c>
+      <c r="F116" s="1"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B117" t="s">
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D117" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>29.2</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B118" t="s">
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D118" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>31.1</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>36.1</v>
+      </c>
+      <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B119" t="s">
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D119" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>73.5</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B120" t="s">
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D120" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>30.1</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B121" t="s">
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D121" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>30.1</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B122" t="s">
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D122" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>45.2</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B123" t="s">
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D123" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.2</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B124" t="s">
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D124" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>71.3</v>
+        <v>65.099999999999994</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B125" t="s">
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D125" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>28.1</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B126" t="s">
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D126" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>67.099999999999994</v>
+        <v>69.099999999999994</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B127" t="s">
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D127" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>62.3</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B128" t="s">
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D128" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>35.1</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B129" t="s">
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D129" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -3682,1157 +3131,1157 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B130" t="s">
         <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D130" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>53.1</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B131" t="s">
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D131" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>48.3</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B132" t="s">
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D132" s="2">
         <f t="shared" ref="D132:D195" ca="1" si="8">ROUND(RANDBETWEEN(24.8,74.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>51.2</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B133" t="s">
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D133" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>70.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B134" t="s">
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D134" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B135" t="s">
         <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D135" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>28.1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B136" t="s">
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D136" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>62.5</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B137" t="s">
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D137" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>41.1</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B138" t="s">
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D138" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>42.2</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B139" t="s">
         <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D139" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>31.2</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B140" t="s">
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D140" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>63.1</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B141" t="s">
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D141" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>74.2</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B142" t="s">
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D142" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>31.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B143" t="s">
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D143" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>72.099999999999994</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B144" t="s">
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D144" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.299999999999997</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B145" t="s">
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D145" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>54.2</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B146" t="s">
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D146" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>74.099999999999994</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B147" t="s">
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D147" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B148" t="s">
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D148" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>65.3</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B149" t="s">
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D149" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>31.1</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B150" t="s">
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D150" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>48.2</v>
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B151" t="s">
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D151" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.2</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B152" t="s">
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D152" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>66.5</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B153" t="s">
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D153" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>52.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B154" t="s">
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D154" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43.3</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B155" t="s">
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D155" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>29.1</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B156" t="s">
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D156" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>31.1</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B157" t="s">
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D157" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>60.3</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B158" t="s">
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D158" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>68.2</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B159" t="s">
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D159" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>47.3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B160" t="s">
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D160" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>36.299999999999997</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B161" t="s">
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D161" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>70.2</v>
+        <v>64.099999999999994</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B162" t="s">
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D162" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>31.1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B163" t="s">
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D163" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>73.5</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B164" t="s">
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D164" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>36.200000000000003</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B165" t="s">
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D165" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.1</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B166" t="s">
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D166" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>31.3</v>
+        <v>66.099999999999994</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B167" t="s">
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D167" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>59.1</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B168" t="s">
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D168" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>63.2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B169" t="s">
         <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D169" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>46.1</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B170" t="s">
         <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D170" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>61.2</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B171" t="s">
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D171" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>28.1</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B172" t="s">
         <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D172" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>46.2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B173" t="s">
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D173" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>42.1</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B174" t="s">
         <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D174" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>45.5</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B175" t="s">
         <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D175" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>30.1</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B176" t="s">
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D176" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>74.2</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B177" t="s">
         <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D177" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>66.099999999999994</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B178" t="s">
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D178" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>73.3</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B179" t="s">
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D179" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>69.099999999999994</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B180" t="s">
         <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D180" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>51.2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B181" t="s">
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D181" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>50.1</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B182" t="s">
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D182" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B183" t="s">
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D183" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B184" t="s">
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D184" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>42.3</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B185" t="s">
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D185" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>31.2</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B186" t="s">
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D186" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>58.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B187" t="s">
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D187" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>39.1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B188" t="s">
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D188" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>37.299999999999997</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B189" t="s">
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D189" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>45.1</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B190" t="s">
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D190" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>48.3</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B191" t="s">
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D191" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>53.1</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B192" t="s">
         <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D192" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>70.099999999999994</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B193" t="s">
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D193" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>65.2</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B194" t="s">
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D194" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>72.099999999999994</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B195" t="s">
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D195" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>41.2</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B196" t="s">
         <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D196" s="2">
         <f t="shared" ref="D196:D206" ca="1" si="9">ROUND(RANDBETWEEN(24.8,74.3)+1/RANDBETWEEN(1,9),1)</f>
-        <v>31.3</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B197" t="s">
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D197" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>67.099999999999994</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B198" t="s">
         <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D198" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>72.5</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B199" t="s">
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D199" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B200" t="s">
         <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D200" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>74.3</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B201" t="s">
         <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D201" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>39.1</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B202" t="s">
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D202" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.1</v>
+        <v>67.099999999999994</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B203" t="s">
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D203" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>70.099999999999994</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B204" t="s">
         <v>0</v>
       </c>
       <c r="C204" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D204" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>58.3</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B205" t="s">
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D205" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>36.5</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B206" t="s">
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D206" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>52.5</v>
+        <v>33.1</v>
       </c>
     </row>
   </sheetData>
